--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20900" windowHeight="11500" tabRatio="876" activeTab="1"/>
+    <workbookView windowWidth="20900" windowHeight="11500" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>主界面</t>
   </si>
@@ -616,11 +616,31 @@
     <t>释义</t>
   </si>
   <si>
+    <t>输出json的code定义</t>
+  </si>
+  <si>
     <t>json参数get/post传入格式</t>
   </si>
   <si>
-    <t>{
-    identication: {
+    <t>public enum MessageCodeType
+    {
+        [Description("OK")]
+        Success=0,
+        [Description("哦,系统开小差了")]
+        Fail = -1,
+        [Description("request传入参数错误")]
+        WrongRequestPara=-10,
+        [Description("Error")]
+        Error = -100,
+        [Description("从json转换对象时出错")]
+        ConvertFromJsonError = -101,
+        [Description("无效Type命令")]
+        InvalidCommandType = -102        
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function:@function
+identication: {
         "type" : "@type",
         "password" : "@password",
         "username" : "@username",
@@ -628,17 +648,106 @@
         "info" : "@info",
         "version" : "@version" 
     },
-    data: {}
-}</t>
-  </si>
-  <si>
-    <t>type的值根据约定值传入
-password暂时没用
-username暂时没用
-imei 手机IMEI码或硬件序列
-info暂时没用
-version 客户端版本
-data:根据约定结构体传入</t>
+data: {}
+</t>
+  </si>
+  <si>
+    <r>
+      <t>共3个参数:
+function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 为业务参数, 按照约定传入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>identication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 为身份认证参数,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须以json格式传入以下字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  type为验证模式,暂为basic
+  password暂时没用
+  username暂时没用
+  imei 手机IMEI码或硬件序列
+  info暂时没用
+  version 客户端版本
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为业务数据体, 根据function的约定传入,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须以json格式传入</t>
+    </r>
   </si>
   <si>
     <t>模块</t>
@@ -662,7 +771,7 @@
     <t>获取展会介绍,5个字段</t>
   </si>
   <si>
-    <t>type:"expo"
+    <t>function:"expo"
 data:{}</t>
   </si>
   <si>
@@ -670,10 +779,10 @@
 "code":0,
 "message":"OK",
 "data":
- {"logo":"图片的base64编码",
+ {"logo":"图片url",
   "name":"展会名称",
   "date":"展会日期,文本",
-  "address":"上海展览馆,
+  "address":"上海展览馆",
   "website":"http://www.chinaclean.com",
   "summary":"简介"
  } 
@@ -683,7 +792,7 @@
     <t>获取"如何参观"</t>
   </si>
   <si>
-    <t>type:"expo1"
+    <t>function:"expo1"
 data:{}</t>
   </si>
   <si>
@@ -691,7 +800,7 @@
 "code":0,
 "message":"OK",
 "data":
- {"img":"图片的base64编码"
+ {"img":"图片url"
  } 
 }</t>
   </si>
@@ -699,63 +808,63 @@
     <t>获取"酒店住宿"</t>
   </si>
   <si>
-    <t>type:"expo2"
+    <t>function:"expo2"
 data:{}</t>
   </si>
   <si>
     <t>获取"免费班车"</t>
   </si>
   <si>
-    <t>type:"expo3"
+    <t>function:"expo3"
 data:{}</t>
   </si>
   <si>
     <t>获取"停车服务"</t>
   </si>
   <si>
-    <t>type:"expo4"
+    <t>function:"expo4"
 data:{}</t>
   </si>
   <si>
     <t>获取"现场服务的餐饮"</t>
   </si>
   <si>
-    <t>type:"expo5"
+    <t>function:"expo5"
 data:{}</t>
   </si>
   <si>
     <t>获取"现场服务的网络"</t>
   </si>
   <si>
-    <t>type:"expo6"
+    <t>function:"expo6"
 data:{}</t>
   </si>
   <si>
     <t>获取"现场服务的洗手间"</t>
   </si>
   <si>
-    <t>type:"expo7"
+    <t>function:"expo7"
 data:{}</t>
   </si>
   <si>
     <t>获取"现场服务的礼品"</t>
   </si>
   <si>
-    <t>type:"expo8"
+    <t>function:"expo8"
 data:{}</t>
   </si>
   <si>
     <t>获取"现场服务的主办方办公室"</t>
   </si>
   <si>
-    <t>type:"expo9"
+    <t>function:"expo9"
 data:{}</t>
   </si>
   <si>
     <t>获取"现场服务的VIP休息区"</t>
   </si>
   <si>
-    <t>type:"expo10"
+    <t>function:"expo10"
 data:{}</t>
   </si>
   <si>
@@ -765,7 +874,7 @@
     <t>获取展商列表</t>
   </si>
   <si>
-    <t>type:"company"
+    <t>function:"company"
 data:{querykey:"查询关键字"}</t>
   </si>
   <si>
@@ -785,7 +894,7 @@
     <t>获取展商详情</t>
   </si>
   <si>
-    <t>type:"company1"
+    <t>function:"company1"
 data:{companyid:展商编号}</t>
   </si>
   <si>
@@ -793,11 +902,12 @@
 "code":0,
 "message":"OK",
 "data":
-  {"logo":"展商logo base64编码",
+  {"logo":"展商logo图片url",
    "zhanweihao":"展位号",
    "companyname":"展商名",
    "tele":"电话",
-   "summary":"简介"
+   "summary":"简介",
+   "location":"位置"
   }
 }</t>
   </si>
@@ -808,7 +918,7 @@
     <t>保存观众登记信息</t>
   </si>
   <si>
-    <t>type:"person"
+    <t>function:"person"
 data:
 {name:"姓名",
  company:"公司",
@@ -839,8 +949,8 @@
     <t>按类别获取3家公司</t>
   </si>
   <si>
-    <t>type:"reward"
-data:{rewardid:"查询关键字"}</t>
+    <t>function:"reward"
+data:{rewardid:奖项编号}</t>
   </si>
   <si>
     <t>{
@@ -850,10 +960,10 @@
  [
   {"companyid":展商编号,
    "companyname":"展商名称",
-   "logo":"展商logo base64编码"},
+   "logo":"展商logo图片url"},
   {"companyid":展商编号,
    "companyname":"展商名称",
-   "logo":"展商logo base64编码"}
+   "logo":"展商logo图片url"}
  ] 
 }</t>
   </si>
@@ -862,6 +972,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">论坛搜索 , 支持 今日论坛索索； 关键词、排序 。 
 </t>
     </r>
@@ -877,13 +994,13 @@
     </r>
   </si>
   <si>
-    <t>type:"forum"
+    <t>function:"forum"
 data:{ onlygettodayforum:1(仅返回今日论坛)或0(忽略)
  querykey:"搜索词",
  timesort:1或0,
- timesortType:1(升序)或0(降序),
+ timesortfunction:1(升序)或0(降序),
  classsort:1或0,
- classsortType:1(升序)或0(降序)
+ classsortfunction:1(升序)或0(降序)
 }</t>
   </si>
   <si>
@@ -908,7 +1025,7 @@
     <t>获取论坛详情</t>
   </si>
   <si>
-    <t>type:"forum1"
+    <t>function:"forum1"
 data:{forum_id:论坛编号
 }</t>
   </si>
@@ -935,7 +1052,7 @@
     <t>获取电子杂志详情</t>
   </si>
   <si>
-    <t>type:"magazine"
+    <t>function:"magazine"
 data:{magazine_id:杂志编号,
    topage:获取杂志的第几页
 }</t>
@@ -951,7 +1068,7 @@
 返回小于lessthan_newsid的pagesize条数据, 首次调用可传入-1或足够大的值.</t>
   </si>
   <si>
-    <t>type:"news"
+    <t>function:"news"
 data:{
    lessthan_newsid:新闻编号,
    pagesize:单页几条
@@ -976,7 +1093,7 @@
     <t>获取行业新闻详情</t>
   </si>
   <si>
-    <t>type:"newsdetail"
+    <t>function:"newsdetail"
 data:{news_id:新闻编号
 }</t>
   </si>
@@ -999,7 +1116,7 @@
     <t>获取微博</t>
   </si>
   <si>
-    <t>type:"weibo"
+    <t>function:"weibo"
 data:{
    submit_time:发布时间,
    pagesize:单页几条
@@ -1030,7 +1147,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1065,6 +1182,14 @@
     <font>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1155,7 +1280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1187,6 +1312,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1316,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1462,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1335,82 +1474,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1419,88 +1549,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,1078 +2012,1078 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.59166666666667" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="34" customWidth="1"/>
-    <col min="4" max="4" width="18.1166666666667" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.1583333333333" style="34" customWidth="1"/>
-    <col min="6" max="6" width="24.0583333333333" style="34" customWidth="1"/>
-    <col min="7" max="7" width="31.8666666666667" style="34" customWidth="1"/>
-    <col min="8" max="8" width="29.525" style="34" customWidth="1"/>
-    <col min="9" max="9" width="61.2833333333333" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="3.59166666666667" style="32" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="32" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.1166666666667" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.1583333333333" style="32" customWidth="1"/>
+    <col min="6" max="6" width="24.0583333333333" style="32" customWidth="1"/>
+    <col min="7" max="7" width="31.8666666666667" style="32" customWidth="1"/>
+    <col min="8" max="8" width="29.525" style="32" customWidth="1"/>
+    <col min="9" max="9" width="61.2833333333333" style="32" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:9">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" ht="103.5" spans="1:9">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="41" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="36" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" ht="17.25" spans="1:9">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="36" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="36" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" ht="103.5" spans="1:9">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="41" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="35"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="35"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="41" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" ht="17.25" spans="1:9">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="35"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" ht="17.25" spans="1:9">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="35"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" ht="17.25" spans="1:9">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="35"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:9">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="41" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="35"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" ht="34.5" spans="1:9">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="50" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="41" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="35"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="41" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="35" t="s">
+      <c r="F17" s="46"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="41" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="35"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="41" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="41" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="35"/>
-    </row>
-    <row r="21" ht="17.25" spans="1:9">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="54" t="s">
+      <c r="F20" s="47"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" ht="34.5" spans="1:9">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="35"/>
-    </row>
-    <row r="22" ht="17.25" spans="1:9">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="41" t="s">
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" ht="34.5" spans="1:9">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="35"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="41" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="35"/>
-    </row>
-    <row r="24" ht="34.5" spans="1:9">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="41" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" ht="51.75" spans="1:9">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" ht="34.5" spans="1:9">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="41" t="s">
+      <c r="F24" s="50"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" ht="51.75" spans="1:9">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="35"/>
-    </row>
-    <row r="26" ht="17.25" spans="1:9">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="41" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" ht="34.5" spans="1:9">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="35"/>
-    </row>
-    <row r="27" ht="17.25" spans="1:9">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="41" t="s">
+      <c r="F26" s="50"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" ht="34.5" spans="1:9">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" ht="17.25" spans="1:9">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" ht="34.5" spans="1:9">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" ht="17.25" spans="1:9">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="41" t="s">
+      <c r="F28" s="50"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" ht="34.5" spans="1:9">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="35"/>
-    </row>
-    <row r="30" ht="17.25" spans="1:9">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="41" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" ht="34.5" spans="1:9">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="35"/>
-    </row>
-    <row r="31" ht="17.25" spans="1:9">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="41" t="s">
+      <c r="F30" s="50"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" ht="34.5" spans="1:9">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="35"/>
-    </row>
-    <row r="32" ht="17.25" spans="1:9">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="41" t="s">
+      <c r="F31" s="50"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" ht="34.5" spans="1:9">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" ht="17.25" spans="1:9">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="41" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" ht="34.5" spans="1:9">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" ht="34.5" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41" t="s">
+      <c r="F33" s="51"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" ht="69" spans="1:9">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="35"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" ht="29" customHeight="1" spans="1:9">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="54" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="35"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="33"/>
     </row>
     <row r="36" ht="17.25" spans="1:9">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="41" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="35"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="33"/>
     </row>
     <row r="37" ht="17.25" spans="1:9">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="35"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" ht="17.25" spans="1:9">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="41" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="35"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" ht="17.25" spans="1:9">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="41" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="35"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" ht="69" spans="1:9">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="51" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="35"/>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" ht="51.75" spans="1:9">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="41" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="33"/>
     </row>
     <row r="42" ht="34.5" spans="1:9">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="41" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="35"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" ht="34.5" spans="1:9">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="35"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" ht="34.5" spans="1:9">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="41" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" ht="34.5" spans="1:9">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="41" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="35"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" ht="34.5" spans="1:9">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="36" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="35"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" ht="51.75" spans="1:9">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="36" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="35" t="s">
+      <c r="H47" s="34"/>
+      <c r="I47" s="33" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="51" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="35"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="33"/>
     </row>
     <row r="49" ht="17.25" spans="1:9">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="35"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="33"/>
     </row>
     <row r="50" ht="17.25" spans="1:9">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="41" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="35"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="33"/>
     </row>
     <row r="51" ht="17.25" spans="1:9">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="41" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="35"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="33"/>
     </row>
     <row r="52" ht="17.25" spans="1:9">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="41" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="35"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="33"/>
     </row>
     <row r="53" ht="34.5" spans="1:9">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="35"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="33"/>
     </row>
     <row r="54" ht="34.5" spans="1:9">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="58" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="35"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="33"/>
     </row>
     <row r="55" ht="18" spans="1:9">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="58" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="35"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="33"/>
     </row>
     <row r="56" ht="18" spans="1:9">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="59" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="35"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="33"/>
     </row>
     <row r="57" ht="17.25" spans="1:9">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
     </row>
     <row r="58" ht="17.25" spans="1:9">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
     </row>
     <row r="59" ht="17.25" spans="1:9">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="61" t="s">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="61" t="s">
+      <c r="G59" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="61" t="s">
+      <c r="H59" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="35"/>
+      <c r="I59" s="33"/>
     </row>
     <row r="60" ht="17.25" spans="1:9">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="61" t="s">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="61" t="s">
+      <c r="G60" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="61" t="s">
+      <c r="H60" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="35"/>
+      <c r="I60" s="33"/>
     </row>
     <row r="61" ht="17.25" spans="1:9">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="61" t="s">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="G61" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="35"/>
+      <c r="I61" s="33"/>
     </row>
     <row r="62" ht="17.25" spans="1:9">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="61" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="61" t="s">
+      <c r="G62" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="61" t="s">
+      <c r="H62" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="35"/>
+      <c r="I62" s="33"/>
     </row>
     <row r="63" ht="17.25" spans="1:9">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="61" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="61" t="s">
+      <c r="G63" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="61" t="s">
+      <c r="H63" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="35"/>
+      <c r="I63" s="33"/>
     </row>
     <row r="64" ht="17.25" spans="1:9">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="61" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="61" t="s">
+      <c r="F64" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="61" t="s">
+      <c r="G64" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="61" t="s">
+      <c r="H64" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="35"/>
+      <c r="I64" s="33"/>
     </row>
     <row r="65" ht="17.25" spans="1:9">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="61" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="F65" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="61" t="s">
+      <c r="G65" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="61" t="s">
+      <c r="H65" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="35"/>
+      <c r="I65" s="33"/>
     </row>
     <row r="66" ht="17.25" spans="1:9">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="61" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="61" t="s">
+      <c r="F66" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="61" t="s">
+      <c r="G66" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="35"/>
+      <c r="I66" s="33"/>
     </row>
     <row r="67" ht="17.25" spans="1:9">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="61" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="61" t="s">
+      <c r="G67" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="35"/>
+      <c r="I67" s="33"/>
     </row>
     <row r="68" ht="17.25" spans="1:9">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="61" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="61" t="s">
+      <c r="F68" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="61" t="s">
+      <c r="G68" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="61" t="s">
+      <c r="H68" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I68" s="35"/>
+      <c r="I68" s="33"/>
     </row>
     <row r="69" ht="17.25" spans="1:9">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="61" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="61" t="s">
+      <c r="F69" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="35"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2981,27 +3111,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G51"/>
+  <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6">
+    <row r="1" ht="4" customHeight="1"/>
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
@@ -3013,529 +3144,532 @@
       <c r="F2" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="3">
+      <c r="H2" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="2:8">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="133" customHeight="1" spans="2:6">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="8" t="s">
+    <row r="4" ht="33" customHeight="1" spans="2:8">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="9" customHeight="1"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="7" ht="144" customHeight="1" spans="2:7">
-      <c r="B7" s="10">
+      <c r="F7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" ht="144" customHeight="1" spans="2:7">
+      <c r="B8" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="D8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" ht="109" customHeight="1" spans="2:7">
-      <c r="B8" s="10">
+      <c r="E8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" ht="109" customHeight="1" spans="2:7">
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C9" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" ht="76" customHeight="1" spans="2:7">
-      <c r="B9" s="10">
+      <c r="E9" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" ht="76" customHeight="1" spans="2:7">
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" ht="47" customHeight="1" spans="2:7">
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" ht="47" customHeight="1" spans="2:7">
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" ht="47" customHeight="1" spans="2:7">
+      <c r="B13" s="12">
+        <v>6</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="2:7">
+      <c r="B14" s="12">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" ht="47" customHeight="1" spans="2:7">
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="2:7">
+      <c r="B16" s="12">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" ht="36" customHeight="1" spans="2:7">
+      <c r="B17" s="12">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" ht="36" customHeight="1" spans="2:7">
+      <c r="B18" s="12">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" ht="130" customHeight="1" spans="2:7">
+      <c r="B19" s="12">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" ht="133" customHeight="1" spans="2:7">
+      <c r="B20" s="12">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" ht="101.25" spans="2:7">
+      <c r="B21" s="6">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" ht="153" customHeight="1" spans="2:7">
+      <c r="B22" s="6">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" ht="195" customHeight="1" spans="2:7">
+      <c r="B23" s="6">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" ht="168.75" spans="2:7">
+      <c r="B24" s="6">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" ht="90" customHeight="1" spans="2:7">
+      <c r="B25" s="6">
+        <v>18</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" ht="47" customHeight="1" spans="2:7">
-      <c r="B11" s="10">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" ht="47" customHeight="1" spans="2:7">
-      <c r="B12" s="10">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" ht="47" customHeight="1" spans="2:7">
-      <c r="B13" s="10">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" ht="47" customHeight="1" spans="2:7">
-      <c r="B14" s="10">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="2:7">
-      <c r="B15" s="10">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" ht="36" customHeight="1" spans="2:7">
-      <c r="B16" s="10">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" ht="36" customHeight="1" spans="2:7">
-      <c r="B17" s="10">
-        <v>11</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" ht="130" customHeight="1" spans="2:7">
-      <c r="B18" s="10">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" ht="133" customHeight="1" spans="2:7">
-      <c r="B19" s="10">
-        <v>13</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" ht="101.25" spans="2:7">
-      <c r="B20" s="10">
-        <v>14</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" ht="153" customHeight="1" spans="2:7">
-      <c r="B21" s="10">
-        <v>15</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" ht="195" customHeight="1" spans="2:7">
-      <c r="B22" s="10">
-        <v>16</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" ht="168.75" spans="2:7">
-      <c r="B23" s="10">
-        <v>17</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" ht="90" customHeight="1" spans="2:7">
-      <c r="B24" s="10">
-        <v>18</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="26" t="s">
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" ht="26" customHeight="1" spans="2:7">
+      <c r="B26" s="6">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" ht="26" customHeight="1" spans="2:7">
-      <c r="B25" s="10">
-        <v>19</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" ht="162" customHeight="1" spans="2:7">
-      <c r="B26" s="10">
+      <c r="D26" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" ht="162" customHeight="1" spans="2:7">
+      <c r="B27" s="6">
         <v>20</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="C27" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="D27" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" ht="121" customHeight="1" spans="2:7">
-      <c r="B27" s="10">
+      <c r="E27" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" ht="121" customHeight="1" spans="2:7">
+      <c r="B28" s="6">
         <v>21</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="C28" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" ht="148" customHeight="1" spans="2:7">
-      <c r="B28" s="10">
+      <c r="E28" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" ht="148" customHeight="1" spans="2:7">
+      <c r="B29" s="6">
         <v>22</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="31" t="s">
+      <c r="C29" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="D29" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="10">
+      <c r="E29" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6">
         <v>23</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="10">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="6">
         <v>24</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="10">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="6">
         <v>25</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="10">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="6">
         <v>26</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="33"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="33"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="33"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="33"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="33"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="33"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="33"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="33"/>
+      <c r="G40" s="31"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="33"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="33"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="33"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="33"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="33"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="33"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="33"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="33"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="33"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="33"/>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="33"/>
+      <c r="G50" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F8:F17"/>
-    <mergeCell ref="G8:G17"/>
+    <mergeCell ref="F9:F18"/>
+    <mergeCell ref="G9:G18"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20900" windowHeight="11500" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="14420" windowHeight="10120" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -653,6 +653,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>共3个参数:
 function</t>
     </r>
@@ -972,13 +980,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">论坛搜索 , 支持 今日论坛索索； 关键词、排序 。 
 </t>
     </r>
@@ -998,9 +999,9 @@
 data:{ onlygettodayforum:1(仅返回今日论坛)或0(忽略)
  querykey:"搜索词",
  timesort:1或0,
- timesortfunction:1(升序)或0(降序),
+ timesorttype:1(升序)或0(降序),
  classsort:1或0,
- classsortfunction:1(升序)或0(降序)
+ classsorttype:1(升序)或0(降序)
 }</t>
   </si>
   <si>
@@ -2012,8 +2013,8 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3114,9 +3115,9 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3412,7 +3413,7 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" ht="101.25" spans="2:7">
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -3432,7 +3433,7 @@
       </c>
     </row>
     <row r="22" ht="153" customHeight="1" spans="2:7">
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -3450,7 +3451,7 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" ht="195" customHeight="1" spans="2:7">
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -3468,7 +3469,7 @@
       <c r="G23" s="24"/>
     </row>
     <row r="24" ht="168.75" spans="2:7">
-      <c r="B24" s="6">
+      <c r="B24" s="12">
         <v>17</v>
       </c>
       <c r="C24" s="13" t="s">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14420" windowHeight="10120" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="10940" windowHeight="9060" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>主界面</t>
   </si>
@@ -883,20 +883,37 @@
   </si>
   <si>
     <t>function:"company"
-data:{querykey:"查询关键字"}</t>
+data:{querykey:"查询关键字",queryby:1(按展商名)或2(按产品)}</t>
   </si>
   <si>
     <t>{
 "code":0,
 "message":"OK",
 "data":
- [
-  {"companyid":展商编号,
-   "companyname":"展商名称" },
-  { "companyid":展商编号,
-   "companyname":"展商名称" }
+ ["firstchar":"A",
+  "company":
+   [
+     {"companyid":展商编号,
+      "companyname":"安徽有个展商名称" },
+     { "companyid":展商编号,
+       "companyname":"安徽某某展商名称"}
+   ],
+  "firstchar":"B",
+  "company":
+   [
+     {"companyid":展商编号,
+      "companyname":"北京展商名称" },
+     { "companyid":展商编号,
+       "companyname":"保定展商名称" }
+   ]
  ] 
 }</t>
+  </si>
+  <si>
+    <t>展商查询接口(序号12):
+20131228修改结构
+1.新增了"queryby"参数
+2.输出按首字母分组,方便前台用</t>
   </si>
   <si>
     <t>获取展商详情</t>
@@ -915,7 +932,8 @@
    "companyname":"展商名",
    "tele":"电话",
    "summary":"简介",
-   "location":"位置"
+   "location":"位置",
+   "firstchar":"a"
   }
 }</t>
   </si>
@@ -931,7 +949,8 @@
 {name:"姓名",
  company:"公司",
  address:"地址",
- city:"省市",
+ province:"省", 
+ city:"市",
  mobile:"手机",
  email:"邮箱"
 }</t>
@@ -949,6 +968,11 @@
 "message":"哦,系统开小差了",
 "data":null
 }</t>
+  </si>
+  <si>
+    <t>观众登记接口(序号14)
+20131228修改结构
+1.传入参数新增了"省"</t>
   </si>
   <si>
     <t>金钻奖</t>
@@ -980,6 +1004,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">论坛搜索 , 支持 今日论坛索索； 关键词、排序 。 
 </t>
     </r>
@@ -1054,12 +1085,37 @@
   </si>
   <si>
     <t>function:"magazine"
-data:{magazine_id:杂志编号,
-   topage:获取杂志的第几页
+data:{magazine_id:杂志编号}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":
+ {"images":["图片url","图片url","图片url"] }
+ }
 }</t>
   </si>
   <si>
+    <t>获取电子杂志详情接口(序号18)
+20131228 修改一次性输出全部图片</t>
+  </si>
+  <si>
     <t>需要获取杂志列表吗?</t>
+  </si>
+  <si>
+    <t>function:"magazine1"
+data:{magazine_year:年}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":
+ [{ "period":"第几期" },
+  { "period":"第几期" }
+ ]
+}</t>
   </si>
   <si>
     <t>行业新闻</t>
@@ -1107,6 +1163,7 @@
    "news_title":"新闻标题",
    "news_date":"新闻日期",
    "news_content":"新闻内容",
+   "news_img":"图片url"
   }
 }</t>
   </si>
@@ -1128,14 +1185,42 @@
 "code":0,
 "message":"OK",
 "data":
-  [{"weibo_submittime":微博发布时间,
-    "weibo_content":"微博内容"
+  [{"weibo_submittime":"微博发布时间",
+    "weibo_content":"微博内容",
+    "images":["url1","url2"]
    },
-   {"weibo_submittime":微博发布时间,
-    "weibo_content":"微博内容"
-   },
+   {"weibo_submittime":"微博发布时间",
+    "weibo_content":"微博内容",
+    "images":["url1","url2"]
+   }
   ]
 }</t>
+  </si>
+  <si>
+    <t>获取微博接口(序号22):
+20131228修改结构
+1.输出增加了images字段,微博可能是带图的</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>获取广告图片</t>
+  </si>
+  <si>
+    <t>function:"advertise"
+data:{
+}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":{"img":"图片url"}
+}</t>
+  </si>
+  <si>
+    <t>20131228新增获取广告图片接口(序号23)</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1610,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2013,1078 +2101,1078 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.59166666666667" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="32" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="32" customWidth="1"/>
-    <col min="4" max="4" width="18.1166666666667" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.1583333333333" style="32" customWidth="1"/>
-    <col min="6" max="6" width="24.0583333333333" style="32" customWidth="1"/>
-    <col min="7" max="7" width="31.8666666666667" style="32" customWidth="1"/>
-    <col min="8" max="8" width="29.525" style="32" customWidth="1"/>
-    <col min="9" max="9" width="61.2833333333333" style="32" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="32"/>
+    <col min="1" max="1" width="3.59166666666667" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="33" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.1166666666667" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.1583333333333" style="33" customWidth="1"/>
+    <col min="6" max="6" width="24.0583333333333" style="33" customWidth="1"/>
+    <col min="7" max="7" width="31.8666666666667" style="33" customWidth="1"/>
+    <col min="8" max="8" width="29.525" style="33" customWidth="1"/>
+    <col min="9" max="9" width="61.2833333333333" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:9">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" ht="103.5" spans="1:9">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="39" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="34" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" ht="17.25" spans="1:9">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="34" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="34" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" ht="103.5" spans="1:9">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="39" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="33"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="38" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="39" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="33"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" ht="17.25" spans="1:9">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="39" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="33"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" ht="17.25" spans="1:9">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="39" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="33"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" ht="17.25" spans="1:9">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="39" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="33"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:9">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="39" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="33"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" ht="34.5" spans="1:9">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="39" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="33"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="48" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="39" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="39" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="33" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="39" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="39" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="33"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="39" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="33"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" ht="34.5" spans="1:9">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="52" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="33"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" ht="34.5" spans="1:9">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="39" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="33"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="39" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" ht="51.75" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="39" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="33"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" ht="51.75" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="39" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="33"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" ht="34.5" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="39" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="33"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" ht="34.5" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="39" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="33"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" ht="34.5" spans="1:9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="39" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="50"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="33"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" ht="34.5" spans="1:9">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="39" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="33"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" ht="34.5" spans="1:9">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="39" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="33"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" ht="34.5" spans="1:9">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="39" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="33"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" ht="34.5" spans="1:9">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="39" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="33"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" ht="34.5" spans="1:9">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="39" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="33"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" ht="69" spans="1:9">
-      <c r="A34" s="36"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="39" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" ht="29" customHeight="1" spans="1:9">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="52" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="33"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" ht="17.25" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="39" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="33"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" ht="17.25" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="39" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="33"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" ht="17.25" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="39" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="33"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" ht="17.25" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="39" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="33"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" ht="69" spans="1:9">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="49" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F40" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" ht="51.75" spans="1:9">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="39" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="33"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" ht="34.5" spans="1:9">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="39" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" ht="34.5" spans="1:9">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="39" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="G43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="33"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" ht="34.5" spans="1:9">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="39" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" ht="34.5" spans="1:9">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="39" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="33"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" ht="34.5" spans="1:9">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="34" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="33"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" ht="51.75" spans="1:9">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="34" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="33" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="49" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="33"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" ht="17.25" spans="1:9">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="39" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="33"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" ht="17.25" spans="1:9">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="39" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="33"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" ht="17.25" spans="1:9">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="39" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="33"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" ht="17.25" spans="1:9">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="39" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="33"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" ht="34.5" spans="1:9">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="56" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="39" t="s">
+      <c r="D53" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="33"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" ht="34.5" spans="1:9">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="56" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="39" t="s">
+      <c r="D54" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="33"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" ht="18" spans="1:9">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="56" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="33"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" ht="18" spans="1:9">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="57" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="33"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" ht="17.25" spans="1:9">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" ht="17.25" spans="1:9">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" ht="17.25" spans="1:9">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="59" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="59" t="s">
+      <c r="F59" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="59" t="s">
+      <c r="G59" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="59" t="s">
+      <c r="H59" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="33"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" ht="17.25" spans="1:9">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="59" t="s">
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="59" t="s">
+      <c r="G60" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="59" t="s">
+      <c r="H60" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" ht="17.25" spans="1:9">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="59" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="59" t="s">
+      <c r="G61" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="33"/>
+      <c r="I61" s="34"/>
     </row>
     <row r="62" ht="17.25" spans="1:9">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="59" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="59" t="s">
+      <c r="F62" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="59" t="s">
+      <c r="G62" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="59" t="s">
+      <c r="H62" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" ht="17.25" spans="1:9">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="59" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="59" t="s">
+      <c r="F63" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="33"/>
+      <c r="I63" s="34"/>
     </row>
     <row r="64" ht="17.25" spans="1:9">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="59" t="s">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="59" t="s">
+      <c r="G64" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="59" t="s">
+      <c r="H64" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="34"/>
     </row>
     <row r="65" ht="17.25" spans="1:9">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="59" t="s">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="59" t="s">
+      <c r="F65" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="59" t="s">
+      <c r="G65" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="59" t="s">
+      <c r="H65" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="33"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" ht="17.25" spans="1:9">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="59" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="59" t="s">
+      <c r="F66" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="59" t="s">
+      <c r="G66" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="59" t="s">
+      <c r="H66" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="33"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" ht="17.25" spans="1:9">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="59" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="59" t="s">
+      <c r="G67" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="59" t="s">
+      <c r="H67" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="33"/>
+      <c r="I67" s="34"/>
     </row>
     <row r="68" ht="17.25" spans="1:9">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="59" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G68" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="59" t="s">
+      <c r="H68" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I68" s="33"/>
+      <c r="I68" s="34"/>
     </row>
     <row r="69" ht="17.25" spans="1:9">
-      <c r="A69" s="33"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="59" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="59" t="s">
+      <c r="F69" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="33"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3114,10 +3202,10 @@
   <sheetPr/>
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3163,7 +3251,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="2:8">
+    <row r="4" ht="29" customHeight="1" spans="2:8">
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
         <v>132</v>
@@ -3376,7 +3464,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" ht="130" customHeight="1" spans="2:7">
+    <row r="19" ht="219" customHeight="1" spans="2:8">
       <c r="B19" s="12">
         <v>12</v>
       </c>
@@ -3393,8 +3481,11 @@
         <v>167</v>
       </c>
       <c r="G19" s="23"/>
-    </row>
-    <row r="20" ht="133" customHeight="1" spans="2:7">
+      <c r="H19" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" ht="146.25" spans="2:7">
       <c r="B20" s="12">
         <v>13</v>
       </c>
@@ -3402,34 +3493,37 @@
         <v>164</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" ht="101.25" spans="2:7">
+        <v>171</v>
+      </c>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" ht="112.5" spans="2:8">
       <c r="B21" s="12">
         <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" ht="153" customHeight="1" spans="2:7">
@@ -3437,16 +3531,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -3455,67 +3549,74 @@
         <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="24"/>
+        <v>185</v>
+      </c>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" ht="168.75" spans="2:7">
       <c r="B24" s="12">
         <v>17</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" ht="90" customHeight="1" spans="2:7">
+    <row r="25" ht="125" customHeight="1" spans="2:8">
       <c r="B25" s="6">
         <v>18</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="C25" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" ht="26" customHeight="1" spans="2:7">
+      <c r="D25" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" ht="102" customHeight="1" spans="2:7">
       <c r="B26" s="6">
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" ht="162" customHeight="1" spans="2:7">
@@ -3523,16 +3624,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -3541,46 +3642,60 @@
         <v>21</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" ht="148" customHeight="1" spans="2:7">
+    <row r="29" ht="148" customHeight="1" spans="2:8">
       <c r="B29" s="6">
         <v>22</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>200</v>
+      <c r="C29" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>206</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="H29" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" ht="62" customHeight="1" spans="2:8">
       <c r="B30" s="6">
         <v>23</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="17"/>
+      <c r="C30" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>212</v>
+      </c>
       <c r="G30" s="6"/>
+      <c r="H30" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="6">
@@ -3613,55 +3728,55 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="31"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="31"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="31"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="31"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="31"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="31"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="31"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="31"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="31"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="31"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="31"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="31"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="31"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="31"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="31"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="31"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="31"/>
+      <c r="G50" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10940" windowHeight="9060" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="20900" windowHeight="10460" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
   <si>
     <t>主界面</t>
   </si>
@@ -1081,7 +1081,20 @@
     <t>电子杂志</t>
   </si>
   <si>
-    <t>获取电子杂志详情</t>
+    <r>
+      <t xml:space="preserve">获取电子杂志详情
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>magazine_id&lt;=0时,返回最新的电子杂志</t>
+    </r>
   </si>
   <si>
     <t>function:"magazine"
@@ -1112,10 +1125,14 @@
 "code":0,
 "message":"OK",
 "data":
- [{ "period":"第几期" },
-  { "period":"第几期" }
+ [{magazine_id:杂志编号,year:年, "period":"第几期" },
+  {magazine_id:杂志编号,year:年, "period":"第几期" }
  ]
 }</t>
+  </si>
+  <si>
+    <t>20140101获取杂志列表接口(序号19)输出结构新增字段:
+magazine_id:杂志编号,year:年</t>
   </si>
   <si>
     <t>行业新闻</t>
@@ -1166,6 +1183,11 @@
    "news_img":"图片url"
   }
 }</t>
+  </si>
+  <si>
+    <t>获取行业新闻详情接口(序号21):
+20131228修改结构
+1.输出增加了news_img字段</t>
   </si>
   <si>
     <t>微博</t>
@@ -1221,6 +1243,29 @@
   </si>
   <si>
     <t>20131228新增获取广告图片接口(序号23)</t>
+  </si>
+  <si>
+    <t>获取奖项列表</t>
+  </si>
+  <si>
+    <t>function:"rewardlist"
+data:{}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":
+ [
+  {"reward_id":奖项编号,
+   "reward_name":"奖项名称"},
+  {"reward_id":奖项编号,
+   "reward_name":"奖项名称"}
+ ] 
+}</t>
+  </si>
+  <si>
+    <t>20140101新增获取奖项列表接口(序号24)</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1620,10 +1665,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2107,1072 +2158,1072 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.59166666666667" style="33" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="33" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.1166666666667" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.1583333333333" style="33" customWidth="1"/>
-    <col min="6" max="6" width="24.0583333333333" style="33" customWidth="1"/>
-    <col min="7" max="7" width="31.8666666666667" style="33" customWidth="1"/>
-    <col min="8" max="8" width="29.525" style="33" customWidth="1"/>
-    <col min="9" max="9" width="61.2833333333333" style="33" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="3.59166666666667" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="35" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="35" customWidth="1"/>
+    <col min="4" max="4" width="18.1166666666667" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.1583333333333" style="35" customWidth="1"/>
+    <col min="6" max="6" width="24.0583333333333" style="35" customWidth="1"/>
+    <col min="7" max="7" width="31.8666666666667" style="35" customWidth="1"/>
+    <col min="8" max="8" width="29.525" style="35" customWidth="1"/>
+    <col min="9" max="9" width="61.2833333333333" style="35" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:9">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="34"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" ht="103.5" spans="1:9">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="35" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" ht="17.25" spans="1:9">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="35" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="35" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" ht="103.5" spans="1:9">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="40" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="34"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="39" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="34"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="34"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" ht="17.25" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="40" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="34"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" ht="17.25" spans="1:9">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="40" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="34"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" ht="17.25" spans="1:9">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="40" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="34"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="40" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="34"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" ht="34.5" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="40" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="34"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="49" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="34"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="40" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="34"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="40" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="34" t="s">
+      <c r="F17" s="49"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="40" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="34"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="40" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="34"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="40" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="34"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" ht="34.5" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="53" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" ht="34.5" spans="1:9">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="40" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="34"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="40" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="51"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="34"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" ht="51.75" spans="1:9">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="40" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="51"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="34"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" ht="51.75" spans="1:9">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="40" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="34"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" ht="34.5" spans="1:9">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="40" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="34"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" ht="34.5" spans="1:9">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="40" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="51"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="34"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" ht="34.5" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="40" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="34"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" ht="34.5" spans="1:9">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="40" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="51"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="34"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" ht="34.5" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="40" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="34"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" ht="34.5" spans="1:9">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="40" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="34"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" ht="34.5" spans="1:9">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="40" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="34"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" ht="34.5" spans="1:9">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="40" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="34"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" ht="69" spans="1:9">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="40" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="34"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" ht="29" customHeight="1" spans="1:9">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="53" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="50" t="s">
+      <c r="E35" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="34"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" ht="17.25" spans="1:9">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="40" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="34"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" ht="17.25" spans="1:9">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="40" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="34"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="36"/>
     </row>
     <row r="38" ht="17.25" spans="1:9">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="40" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="34"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" ht="17.25" spans="1:9">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="40" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="34"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" ht="69" spans="1:9">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="50" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" ht="51.75" spans="1:9">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="40" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="40" t="s">
+      <c r="G41" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="34"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" ht="34.5" spans="1:9">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="40" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="40" t="s">
+      <c r="G42" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" ht="34.5" spans="1:9">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="40" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="G43" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" ht="34.5" spans="1:9">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="40" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="36"/>
     </row>
     <row r="45" ht="34.5" spans="1:9">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="40" t="s">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" ht="34.5" spans="1:9">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="35" t="s">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G46" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" ht="51.75" spans="1:9">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="35" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="34" t="s">
+      <c r="H47" s="37"/>
+      <c r="I47" s="36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="50" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="34"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" ht="17.25" spans="1:9">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="40" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="34"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" ht="17.25" spans="1:9">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="40" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="34"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" ht="17.25" spans="1:9">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="40" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="34"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" ht="17.25" spans="1:9">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="40" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="34"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="53" ht="34.5" spans="1:9">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="57" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="34"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" ht="34.5" spans="1:9">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="57" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="34"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" ht="18" spans="1:9">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="57" t="s">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="34"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" ht="18" spans="1:9">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="58" t="s">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="34"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="36"/>
     </row>
     <row r="57" ht="17.25" spans="1:9">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" ht="17.25" spans="1:9">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" ht="17.25" spans="1:9">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="60" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="60" t="s">
+      <c r="H59" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="34"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" ht="17.25" spans="1:9">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="60" t="s">
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F60" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="60" t="s">
+      <c r="G60" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="60" t="s">
+      <c r="H60" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" ht="17.25" spans="1:9">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="60" t="s">
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="60" t="s">
+      <c r="F61" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="60" t="s">
+      <c r="G61" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="60" t="s">
+      <c r="H61" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="34"/>
+      <c r="I61" s="36"/>
     </row>
     <row r="62" ht="17.25" spans="1:9">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="60" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="60" t="s">
+      <c r="F62" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G62" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="60" t="s">
+      <c r="H62" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="36"/>
     </row>
     <row r="63" ht="17.25" spans="1:9">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="60" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F63" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="60" t="s">
+      <c r="G63" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="60" t="s">
+      <c r="H63" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="34"/>
+      <c r="I63" s="36"/>
     </row>
     <row r="64" ht="17.25" spans="1:9">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="60" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="60" t="s">
+      <c r="F64" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="60" t="s">
+      <c r="G64" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="60" t="s">
+      <c r="H64" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="36"/>
     </row>
     <row r="65" ht="17.25" spans="1:9">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="60" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="60" t="s">
+      <c r="F65" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="60" t="s">
+      <c r="G65" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="60" t="s">
+      <c r="H65" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="34"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" ht="17.25" spans="1:9">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="60" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="60" t="s">
+      <c r="H66" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="36"/>
     </row>
     <row r="67" ht="17.25" spans="1:9">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="60" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="60" t="s">
+      <c r="F67" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="60" t="s">
+      <c r="G67" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="60" t="s">
+      <c r="H67" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="36"/>
     </row>
     <row r="68" ht="17.25" spans="1:9">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="60" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="60" t="s">
+      <c r="F68" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="60" t="s">
+      <c r="G68" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="60" t="s">
+      <c r="H68" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I68" s="34"/>
+      <c r="I68" s="36"/>
     </row>
     <row r="69" ht="17.25" spans="1:9">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="60" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="60" t="s">
+      <c r="F69" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="34"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3202,10 +3253,10 @@
   <sheetPr/>
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3251,7 +3302,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" ht="29" customHeight="1" spans="2:8">
+    <row r="4" ht="15" customHeight="1" spans="2:8">
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
         <v>132</v>
@@ -3587,13 +3638,13 @@
       <c r="C25" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="29" t="s">
         <v>192</v>
       </c>
       <c r="G25" s="26"/>
@@ -3601,7 +3652,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" ht="102" customHeight="1" spans="2:7">
+    <row r="26" ht="102" customHeight="1" spans="2:8">
       <c r="B26" s="6">
         <v>19</v>
       </c>
@@ -3618,62 +3669,68 @@
         <v>196</v>
       </c>
       <c r="G26" s="6"/>
+      <c r="H26" s="30" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="27" ht="162" customHeight="1" spans="2:7">
       <c r="B27" s="6">
         <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="31" t="s">
         <v>199</v>
       </c>
+      <c r="E27" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="F27" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" ht="121" customHeight="1" spans="2:7">
+    <row r="28" ht="121" customHeight="1" spans="2:8">
       <c r="B28" s="6">
         <v>21</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="27" t="s">
         <v>202</v>
       </c>
+      <c r="E28" s="28" t="s">
+        <v>203</v>
+      </c>
       <c r="F28" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28" s="6"/>
+      <c r="H28" s="24" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="29" ht="148" customHeight="1" spans="2:8">
       <c r="B29" s="6">
         <v>22</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>204</v>
+      <c r="C29" s="33" t="s">
+        <v>206</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" ht="62" customHeight="1" spans="2:8">
@@ -3681,31 +3738,42 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" ht="123.75" spans="2:8">
       <c r="B31" s="6">
         <v>24</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="17"/>
+      <c r="C31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="G31" s="6"/>
+      <c r="H31" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="6">
@@ -3728,55 +3796,55 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="32"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="32"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="32"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="32"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="32"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="32"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="32"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="32"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="32"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="32"/>
+      <c r="G43" s="34"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="32"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="32"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="32"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="32"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="32"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="32"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="32"/>
+      <c r="G50" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20900" windowHeight="10460" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="20900" windowHeight="11500" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -883,14 +883,14 @@
   </si>
   <si>
     <t>function:"company"
-data:{querykey:"查询关键字",queryby:1(按展商名)或2(按产品)}</t>
+data:{querykey:"查询关键字",sortby:1(按展商名)或2(按产品类)}</t>
   </si>
   <si>
     <t>{
 "code":0,
 "message":"OK",
 "data":
- ["firstchar":"A",
+ ["sectionname":"A",
   "company":
    [
      {"companyid":展商编号,
@@ -898,7 +898,7 @@
      { "companyid":展商编号,
        "companyname":"安徽某某展商名称"}
    ],
-  "firstchar":"B",
+  "sectionname":"B",
   "company":
    [
      {"companyid":展商编号,
@@ -910,10 +910,14 @@
 }</t>
   </si>
   <si>
-    <t>展商查询接口(序号12):
+    <t xml:space="preserve">展商查询接口(序号12):
 20131228修改结构
 1.新增了"queryby"参数
-2.输出按首字母分组,方便前台用</t>
+2.输出按首字母分组,方便前台用
+20140103修改接口(序号12):
+输入修改sortby, 排序分两种
+输出firstchar 改为sectionname
+</t>
   </si>
   <si>
     <t>获取展商详情</t>
@@ -1082,6 +1086,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">获取电子杂志详情
 </t>
     </r>
@@ -1193,12 +1204,13 @@
     <t>微博</t>
   </si>
   <si>
-    <t>获取微博</t>
+    <t>获取微博
+返回小于lessthan_wbid的pagesize条数据, 首次调用可传入-1或足够大的值.</t>
   </si>
   <si>
     <t>function:"weibo"
 data:{
-   submit_time:发布时间,
+   lessthan_wbid:微博编号,
    pagesize:单页几条
 }</t>
   </si>
@@ -1207,11 +1219,13 @@
 "code":0,
 "message":"OK",
 "data":
-  [{"weibo_submittime":"微博发布时间",
+  [{"wbid":微博编号,
+    "weibo_submittime":"微博发布时间",
     "weibo_content":"微博内容",
     "images":["url1","url2"]
    },
-   {"weibo_submittime":"微博发布时间",
+   {"wbid":微博编号,
+    "weibo_submittime":"微博发布时间",
     "weibo_content":"微博内容",
     "images":["url1","url2"]
    }
@@ -1221,7 +1235,11 @@
   <si>
     <t>获取微博接口(序号22):
 20131228修改结构
-1.输出增加了images字段,微博可能是带图的</t>
+1.输出增加了images字段,微博可能是带图的
+获取微博接口(序号22):
+20140104修改结构
+1.输入改为按id获取
+2.输出增加wbid字段</t>
   </si>
   <si>
     <t>广告</t>
@@ -1273,10 +1291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1583,7 +1601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,17 +1692,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2153,1077 +2168,1077 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.59166666666667" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="18.1166666666667" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.1583333333333" style="35" customWidth="1"/>
-    <col min="6" max="6" width="24.0583333333333" style="35" customWidth="1"/>
-    <col min="7" max="7" width="31.8666666666667" style="35" customWidth="1"/>
-    <col min="8" max="8" width="29.525" style="35" customWidth="1"/>
-    <col min="9" max="9" width="61.2833333333333" style="35" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="3.59166666666667" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="34" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="34" customWidth="1"/>
+    <col min="4" max="4" width="18.1166666666667" style="34" customWidth="1"/>
+    <col min="5" max="5" width="15.1583333333333" style="34" customWidth="1"/>
+    <col min="6" max="6" width="24.0583333333333" style="34" customWidth="1"/>
+    <col min="7" max="7" width="31.8666666666667" style="34" customWidth="1"/>
+    <col min="8" max="8" width="29.525" style="34" customWidth="1"/>
+    <col min="9" max="9" width="61.2833333333333" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:9">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" ht="103.5" spans="1:9">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="36"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="42" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="36"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="37" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" ht="17.25" spans="1:9">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="37" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="37" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" ht="103.5" spans="1:9">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="42" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="41" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="42" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" ht="17.25" spans="1:9">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="42" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="36"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" ht="17.25" spans="1:9">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="42" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" ht="17.25" spans="1:9">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="42" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:9">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="42" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" ht="34.5" spans="1:9">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="42" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="42" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="36" t="s">
+      <c r="F17" s="48"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="42" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="36"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="42" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="42" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="36"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" ht="34.5" spans="1:9">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="55" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" ht="34.5" spans="1:9">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="42" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="36"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="42" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" ht="51.75" spans="1:9">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="42" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="36"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" ht="51.75" spans="1:9">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="42" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" ht="34.5" spans="1:9">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="42" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="36"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" ht="34.5" spans="1:9">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="42" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="36"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="35"/>
     </row>
     <row r="28" ht="34.5" spans="1:9">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="42" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="36"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" ht="34.5" spans="1:9">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="42" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="36"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" ht="34.5" spans="1:9">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="42" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="36"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" ht="34.5" spans="1:9">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="42" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="36"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" ht="34.5" spans="1:9">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="42" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="36"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="35"/>
     </row>
     <row r="33" ht="34.5" spans="1:9">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="42" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="36"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" ht="69" spans="1:9">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F34" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="36"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" ht="29" customHeight="1" spans="1:9">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="55" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="36"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="35"/>
     </row>
     <row r="36" ht="17.25" spans="1:9">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="42" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="36"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" ht="17.25" spans="1:9">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="42" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="36"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" ht="17.25" spans="1:9">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="42" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="36"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" ht="17.25" spans="1:9">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="42" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="42"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="36"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="35"/>
     </row>
     <row r="40" ht="69" spans="1:9">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="52" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="42" t="s">
+      <c r="F40" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="36"/>
+      <c r="I40" s="35"/>
     </row>
     <row r="41" ht="51.75" spans="1:9">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="42" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="G41" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="36"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" ht="34.5" spans="1:9">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="42" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="42" t="s">
+      <c r="G42" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="36"/>
+      <c r="I42" s="35"/>
     </row>
     <row r="43" ht="34.5" spans="1:9">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="42" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="G43" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="36"/>
+      <c r="I43" s="35"/>
     </row>
     <row r="44" ht="34.5" spans="1:9">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="42" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="42" t="s">
+      <c r="H44" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="36"/>
+      <c r="I44" s="35"/>
     </row>
     <row r="45" ht="34.5" spans="1:9">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="42" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="42" t="s">
+      <c r="H45" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="36"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" ht="34.5" spans="1:9">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="37" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="37"/>
-      <c r="I46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="35"/>
     </row>
     <row r="47" ht="51.75" spans="1:9">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="37" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="42" t="s">
+      <c r="F47" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="G47" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="36" t="s">
+      <c r="H47" s="36"/>
+      <c r="I47" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="52" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="42" t="s">
+      <c r="F48" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="35"/>
     </row>
     <row r="49" ht="17.25" spans="1:9">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="42" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="35"/>
     </row>
     <row r="50" ht="17.25" spans="1:9">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="42" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="35"/>
     </row>
     <row r="51" ht="17.25" spans="1:9">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="42" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="35"/>
     </row>
     <row r="52" ht="17.25" spans="1:9">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="42" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" ht="34.5" spans="1:9">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="59" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="35"/>
     </row>
     <row r="54" ht="34.5" spans="1:9">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="59" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="35"/>
     </row>
     <row r="55" ht="18" spans="1:9">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="59" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="35"/>
     </row>
     <row r="56" ht="18" spans="1:9">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="60" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="35"/>
     </row>
     <row r="57" ht="17.25" spans="1:9">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" ht="17.25" spans="1:9">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
     </row>
     <row r="59" ht="17.25" spans="1:9">
-      <c r="A59" s="61"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="62" t="s">
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="62" t="s">
+      <c r="G59" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="62" t="s">
+      <c r="H59" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="36"/>
+      <c r="I59" s="35"/>
     </row>
     <row r="60" ht="17.25" spans="1:9">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="62" t="s">
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="62" t="s">
+      <c r="G60" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="62" t="s">
+      <c r="H60" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="36"/>
+      <c r="I60" s="35"/>
     </row>
     <row r="61" ht="17.25" spans="1:9">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="62" t="s">
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="62" t="s">
+      <c r="F61" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="62" t="s">
+      <c r="H61" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="36"/>
+      <c r="I61" s="35"/>
     </row>
     <row r="62" ht="17.25" spans="1:9">
-      <c r="A62" s="36"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="62" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="62" t="s">
+      <c r="G62" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="62" t="s">
+      <c r="H62" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="36"/>
+      <c r="I62" s="35"/>
     </row>
     <row r="63" ht="17.25" spans="1:9">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="62" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="62" t="s">
+      <c r="F63" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="62" t="s">
+      <c r="G63" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="62" t="s">
+      <c r="H63" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="36"/>
+      <c r="I63" s="35"/>
     </row>
     <row r="64" ht="17.25" spans="1:9">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="62" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="62" t="s">
+      <c r="F64" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="62" t="s">
+      <c r="G64" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="62" t="s">
+      <c r="H64" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="36"/>
+      <c r="I64" s="35"/>
     </row>
     <row r="65" ht="17.25" spans="1:9">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="62" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="62" t="s">
+      <c r="F65" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="62" t="s">
+      <c r="G65" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="36"/>
+      <c r="I65" s="35"/>
     </row>
     <row r="66" ht="17.25" spans="1:9">
-      <c r="A66" s="36"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="62" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="62" t="s">
+      <c r="F66" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="62" t="s">
+      <c r="G66" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="62" t="s">
+      <c r="H66" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="36"/>
+      <c r="I66" s="35"/>
     </row>
     <row r="67" ht="17.25" spans="1:9">
-      <c r="A67" s="36"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="62" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="62" t="s">
+      <c r="H67" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="36"/>
+      <c r="I67" s="35"/>
     </row>
     <row r="68" ht="17.25" spans="1:9">
-      <c r="A68" s="36"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="62" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="62" t="s">
+      <c r="F68" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="62" t="s">
+      <c r="G68" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="62" t="s">
+      <c r="H68" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="I68" s="36"/>
+      <c r="I68" s="35"/>
     </row>
     <row r="69" ht="17.25" spans="1:9">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="62" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="62" t="s">
+      <c r="F69" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="36"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3254,9 +3269,9 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3515,7 +3530,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" ht="219" customHeight="1" spans="2:8">
+    <row r="19" ht="249" customHeight="1" spans="2:8">
       <c r="B19" s="12">
         <v>12</v>
       </c>
@@ -3669,7 +3684,7 @@
         <v>196</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="24" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3680,10 +3695,10 @@
       <c r="C27" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="30" t="s">
         <v>200</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -3716,13 +3731,13 @@
       <c r="B29" s="6">
         <v>22</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="30" t="s">
         <v>208</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -3743,7 +3758,7 @@
       <c r="D30" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="30" t="s">
         <v>213</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -3796,55 +3811,55 @@
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="34"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="34"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="34"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="34"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="34"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="34"/>
+      <c r="G39" s="33"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="34"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="34"/>
+      <c r="G41" s="33"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="34"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="34"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="34"/>
+      <c r="G44" s="33"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="34"/>
+      <c r="G45" s="33"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="34"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="34"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="34"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="34"/>
+      <c r="G49" s="33"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="34"/>
+      <c r="G50" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>主界面</t>
   </si>
@@ -1071,15 +1071,19 @@
 "message":"OK",
 "data":
   {"forum_id":论坛编号,
-   "name":"论坛名称",
+   "forum_name":"论坛名称",
    "type":1(高峰论坛)或2(一般论坛)或3(比赛)或4(秀),
-   "date":"时间",
-   "place":"地点",
+   "forum_date":"时间",
+   "forum_address":"地点",
    "summary":"简介或规则",
    "instructor":"讲师或赞助",
    "agenda":"议程或议题或人员"
   }
 }</t>
+  </si>
+  <si>
+    <t>获取论坛详情接口(序号17)
+20140105 输出字段名做了调整</t>
   </si>
   <si>
     <t>电子杂志</t>
@@ -1291,10 +1295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1594,10 +1598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1680,6 +1684,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1697,9 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1796,8 +1800,8 @@
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2167,8 +2171,8 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3269,9 +3273,9 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3628,7 +3632,7 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" ht="168.75" spans="2:7">
+    <row r="24" ht="168.75" spans="2:8">
       <c r="B24" s="12">
         <v>17</v>
       </c>
@@ -3645,26 +3649,29 @@
         <v>188</v>
       </c>
       <c r="G24" s="6"/>
+      <c r="H24" s="26" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="25" ht="125" customHeight="1" spans="2:8">
       <c r="B25" s="6">
         <v>18</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="G25" s="26"/>
+      <c r="F25" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="27"/>
       <c r="H25" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" ht="102" customHeight="1" spans="2:8">
@@ -3672,20 +3679,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" ht="162" customHeight="1" spans="2:7">
@@ -3693,16 +3700,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>200</v>
       </c>
+      <c r="E27" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="F27" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -3711,41 +3718,41 @@
         <v>21</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>203</v>
       </c>
+      <c r="E28" s="29" t="s">
+        <v>204</v>
+      </c>
       <c r="F28" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" ht="148" customHeight="1" spans="2:8">
       <c r="B29" s="6">
         <v>22</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>208</v>
       </c>
+      <c r="E29" s="31" t="s">
+        <v>209</v>
+      </c>
       <c r="F29" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" ht="62" customHeight="1" spans="2:8">
@@ -3753,20 +3760,20 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="30" t="s">
         <v>213</v>
       </c>
+      <c r="E30" s="31" t="s">
+        <v>214</v>
+      </c>
       <c r="F30" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" ht="123.75" spans="2:8">
@@ -3777,17 +3784,17 @@
         <v>178</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:7">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20900" windowHeight="11500" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="20900" windowHeight="11520" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>主界面</t>
   </si>
@@ -1288,6 +1288,60 @@
   </si>
   <si>
     <t>20140101新增获取奖项列表接口(序号24)</t>
+  </si>
+  <si>
+    <t>获取展商坐标</t>
+  </si>
+  <si>
+    <t>function:"company2"
+data:{}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":
+  [
+   { "companyid":展商编号,
+     "companyname":"展商名称",
+     "zhanweiimg_id","展位图编号",
+     "coordinate":{"tlx":左上角x,"tly":左上角y,"brx":右下角x,"bry":右下角y}
+   },
+   { "companyid":展商编号,
+     "companyname":"展商名称",
+     "zhanweiimg_id","展位图编号",
+     "coordinate":{"tlx":左上角x,"tly":左上角y,"brx":右下角x,"bry":右下角y}
+   }
+  ]
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20140111新增:
+</t>
+  </si>
+  <si>
+    <t>获取展位图</t>
+  </si>
+  <si>
+    <t>function:"company3"
+data:{}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":
+  [
+   {  
+    "zhanweiimg_id":"展位图编号",
+    "zhanweiimg_name":"展馆名称",
+    "zhanweiimg_url":"展位图url"
+   }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>20140111新增</t>
   </si>
 </sst>
 </file>
@@ -1598,14 +1652,14 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,9 +1737,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1800,8 +1851,8 @@
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="常规 2" xfId="7"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2171,1078 +2222,1078 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.59166666666667" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.44166666666667" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="34" customWidth="1"/>
-    <col min="4" max="4" width="18.1166666666667" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.1583333333333" style="34" customWidth="1"/>
-    <col min="6" max="6" width="24.0583333333333" style="34" customWidth="1"/>
-    <col min="7" max="7" width="31.8666666666667" style="34" customWidth="1"/>
-    <col min="8" max="8" width="29.525" style="34" customWidth="1"/>
-    <col min="9" max="9" width="61.2833333333333" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="3.59166666666667" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.44166666666667" style="33" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="33" customWidth="1"/>
+    <col min="4" max="4" width="18.1166666666667" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.1583333333333" style="33" customWidth="1"/>
+    <col min="6" max="6" width="24.0583333333333" style="33" customWidth="1"/>
+    <col min="7" max="7" width="31.8666666666667" style="33" customWidth="1"/>
+    <col min="8" max="8" width="29.525" style="33" customWidth="1"/>
+    <col min="9" max="9" width="61.2833333333333" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:9">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" ht="103.5" spans="1:9">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="41" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="36" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="35"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" ht="17.25" spans="1:9">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="36" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="36" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="35"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" ht="103.5" spans="1:9">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="41" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="35"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="35"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="41" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="35"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" ht="17.25" spans="1:9">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="35"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" ht="17.25" spans="1:9">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="35"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" ht="17.25" spans="1:9">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="35"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" ht="40" customHeight="1" spans="1:9">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="41" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="35"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" ht="34.5" spans="1:9">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="50" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" ht="17.25" spans="1:9">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="41" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="35"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="41" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="35" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="41" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="35"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="41" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="35"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="41" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="35"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" ht="34.5" spans="1:9">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="54" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="35"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" ht="34.5" spans="1:9">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="41" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="35"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="41" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="35"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" ht="51.75" spans="1:9">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="41" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="35"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" ht="51.75" spans="1:9">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="41" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="35"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" ht="34.5" spans="1:9">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="41" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="35"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" ht="34.5" spans="1:9">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="41" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="35"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" ht="34.5" spans="1:9">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="41" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="35"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" ht="34.5" spans="1:9">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="41" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="35"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" ht="34.5" spans="1:9">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="41" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="35"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" ht="34.5" spans="1:9">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="41" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="35"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" ht="34.5" spans="1:9">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="41" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="35"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" ht="34.5" spans="1:9">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="41" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="35"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" ht="69" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="E34" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="35"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" ht="29" customHeight="1" spans="1:9">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="54" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="41"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="35"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" ht="17.25" spans="1:9">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="41" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="35"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" ht="17.25" spans="1:9">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="41" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="41"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="35"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" ht="17.25" spans="1:9">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="41" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="35"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" ht="17.25" spans="1:9">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="41" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="35"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" ht="69" spans="1:9">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="51" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I40" s="35"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" ht="51.75" spans="1:9">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="41" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" ht="34.5" spans="1:9">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="41" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="41" t="s">
+      <c r="H42" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="35"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" ht="34.5" spans="1:9">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="41" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="35"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" ht="34.5" spans="1:9">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="41" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" ht="34.5" spans="1:9">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="41" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="35"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" ht="34.5" spans="1:9">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="36" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="41" t="s">
+      <c r="F46" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" ht="51.75" spans="1:9">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="36" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="35" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:9">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="51" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="41" t="s">
+      <c r="F48" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" ht="17.25" spans="1:9">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="41" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" ht="17.25" spans="1:9">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="41" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" ht="17.25" spans="1:9">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="41" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" ht="17.25" spans="1:9">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="41" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" ht="34.5" spans="1:9">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" ht="34.5" spans="1:9">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="58" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" ht="18" spans="1:9">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="58" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" ht="18" spans="1:9">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="59" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" ht="17.25" spans="1:9">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" ht="17.25" spans="1:9">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" ht="17.25" spans="1:9">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="61" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G59" s="61" t="s">
+      <c r="G59" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H59" s="61" t="s">
+      <c r="H59" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="35"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" ht="17.25" spans="1:9">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="61" t="s">
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="61" t="s">
+      <c r="G60" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="61" t="s">
+      <c r="H60" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="I60" s="35"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" ht="17.25" spans="1:9">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="61" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="61" t="s">
+      <c r="F61" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="61" t="s">
+      <c r="G61" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I61" s="35"/>
+      <c r="I61" s="34"/>
     </row>
     <row r="62" ht="17.25" spans="1:9">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="61" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="61" t="s">
+      <c r="F62" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G62" s="61" t="s">
+      <c r="G62" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="61" t="s">
+      <c r="H62" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I62" s="35"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" ht="17.25" spans="1:9">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="61" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="61" t="s">
+      <c r="G63" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="61" t="s">
+      <c r="H63" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="I63" s="35"/>
+      <c r="I63" s="34"/>
     </row>
     <row r="64" ht="17.25" spans="1:9">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="61" t="s">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F64" s="61" t="s">
+      <c r="F64" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G64" s="61" t="s">
+      <c r="G64" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="61" t="s">
+      <c r="H64" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I64" s="35"/>
+      <c r="I64" s="34"/>
     </row>
     <row r="65" ht="17.25" spans="1:9">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="61" t="s">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="61" t="s">
+      <c r="F65" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G65" s="61" t="s">
+      <c r="G65" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="61" t="s">
+      <c r="H65" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="35"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" ht="17.25" spans="1:9">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="61" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="61" t="s">
+      <c r="F66" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G66" s="61" t="s">
+      <c r="G66" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I66" s="35"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" ht="17.25" spans="1:9">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="61" t="s">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G67" s="61" t="s">
+      <c r="G67" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I67" s="35"/>
+      <c r="I67" s="34"/>
     </row>
     <row r="68" ht="17.25" spans="1:9">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="61" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="61" t="s">
+      <c r="F68" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G68" s="61" t="s">
+      <c r="G68" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="H68" s="61" t="s">
+      <c r="H68" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="I68" s="35"/>
+      <c r="I68" s="34"/>
     </row>
     <row r="69" ht="17.25" spans="1:9">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="61" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="61" t="s">
+      <c r="F69" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="35"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3272,10 +3323,10 @@
   <sheetPr/>
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3285,7 +3336,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="22.125" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="6" max="6" width="62" customWidth="1"/>
     <col min="7" max="7" width="9.25" customWidth="1"/>
     <col min="8" max="8" width="42.125" customWidth="1"/>
   </cols>
@@ -3632,7 +3683,7 @@
       </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" ht="168.75" spans="2:8">
+    <row r="24" ht="157.5" spans="2:8">
       <c r="B24" s="12">
         <v>17</v>
       </c>
@@ -3649,7 +3700,7 @@
         <v>188</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="24" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3657,19 +3708,19 @@
       <c r="B25" s="6">
         <v>18</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="24" t="s">
         <v>194</v>
       </c>
@@ -3702,10 +3753,10 @@
       <c r="C27" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>201</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -3720,10 +3771,10 @@
       <c r="C28" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>204</v>
       </c>
       <c r="F28" s="17" t="s">
@@ -3738,13 +3789,13 @@
       <c r="B29" s="6">
         <v>22</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>209</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -3765,7 +3816,7 @@
       <c r="D30" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>214</v>
       </c>
       <c r="F30" s="17" t="s">
@@ -3797,76 +3848,98 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" ht="191.25" spans="2:8">
       <c r="B32" s="6">
         <v>25</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="C32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" ht="146.25" spans="2:8">
       <c r="B33" s="6">
         <v>26</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="34" spans="7:7">
-      <c r="G34" s="33"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="7:7">
-      <c r="G35" s="33"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="33"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="33"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="33"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="33"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="33"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="33"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="33"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="33"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="33"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="33"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="33"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="33"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="33"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="33"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="33"/>
+      <c r="G50" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20900" windowHeight="11520" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="21500" windowHeight="11500" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -1317,6 +1317,10 @@
   </si>
   <si>
     <t xml:space="preserve">20140111新增:
+tlx:左上角距左像素
+tly:左上角上方像素
+brx:右下角距左像素
+bry:右下角上方像素
 </t>
   </si>
   <si>
@@ -1349,10 +1353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1652,10 +1656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1851,8 +1855,8 @@
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3326,7 +3330,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="11500" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="21500" windowHeight="10460" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>主界面</t>
   </si>
@@ -1075,15 +1075,21 @@
    "type":1(高峰论坛)或2(一般论坛)或3(比赛)或4(秀),
    "forum_date":"时间",
    "forum_address":"地点",
-   "summary":"简介或规则",
-   "instructor":"讲师或赞助",
-   "agenda":"议程或议题或人员"
+   "summary":"主办单位或赞助或简介",
+   "instructor":"讲师或奖励或公司",
+   "agenda":"议程或议题或规则/人员"
   }
 }</t>
   </si>
   <si>
     <t>获取论坛详情接口(序号17)
-20140105 输出字段名做了调整</t>
+20140105 输出字段名做了调整
+20140118 修改论坛对应的字段:
+-----summary---instructor---agenda--
+高峰: 主办单位  讲师       议程
+一般: 主办单位  讲师       议题
+比赛: 赞助      奖励       规则/人员
+秀  : 简介      公司       议程</t>
   </si>
   <si>
     <t>电子杂志</t>
@@ -1171,12 +1177,19 @@
  [
   {"news_id":新闻编号,
    "news_title":"新闻标题",
-   "news_date":"新闻日期"},
+   "news_date":"新闻日期",
+   "news_img":"图片url"
+   },
   {"news_id":新闻编号,
    "news_title":"新闻标题",
-   "news_date":"新闻日期"}
+   "news_date":"新闻日期",
+   "news_img":"图片url"
+  }
  ] 
 }</t>
+  </si>
+  <si>
+    <t>20140118 添加news_img字段</t>
   </si>
   <si>
     <t>获取行业新闻详情</t>
@@ -1353,10 +1366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2226,8 +2239,8 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="F47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3327,10 +3340,10 @@
   <sheetPr/>
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3750,7 +3763,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" ht="162" customHeight="1" spans="2:7">
+    <row r="27" ht="162" customHeight="1" spans="2:8">
       <c r="B27" s="6">
         <v>20</v>
       </c>
@@ -3767,6 +3780,9 @@
         <v>202</v>
       </c>
       <c r="G27" s="6"/>
+      <c r="H27" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="28" ht="121" customHeight="1" spans="2:8">
       <c r="B28" s="6">
@@ -3776,17 +3792,17 @@
         <v>199</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" ht="148" customHeight="1" spans="2:8">
@@ -3794,20 +3810,20 @@
         <v>22</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" ht="62" customHeight="1" spans="2:8">
@@ -3815,20 +3831,20 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" ht="123.75" spans="2:8">
@@ -3839,17 +3855,17 @@
         <v>178</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" ht="191.25" spans="2:8">
@@ -3860,17 +3876,17 @@
         <v>164</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" ht="146.25" spans="2:8">
@@ -3881,17 +3897,17 @@
         <v>164</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="7:7">

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="10460" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="21500" windowHeight="10060" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
     <sheet name="接口" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口!$B$7:$H$34</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
   <si>
     <t>主界面</t>
   </si>
@@ -808,7 +811,7 @@
 "code":0,
 "message":"OK",
 "data":
- {"img":"图片url"
+ {"img":"相关内容"
  } 
 }</t>
   </si>
@@ -832,6 +835,10 @@
   <si>
     <t>function:"expo4"
 data:{}</t>
+  </si>
+  <si>
+    <t>20140216
+img字段由图片url改为相关内容</t>
   </si>
   <si>
     <t>获取"现场服务的餐饮"</t>
@@ -1077,7 +1084,8 @@
    "forum_address":"地点",
    "summary":"主办单位或赞助或简介",
    "instructor":"讲师或奖励或公司",
-   "agenda":"议程或议题或规则/人员"
+   "agenda":"议程或议题或规则/人员",
+   "fullDescr":"完整的描述,用于前端直接显示"
   }
 }</t>
   </si>
@@ -1089,7 +1097,8 @@
 高峰: 主办单位  讲师       议程
 一般: 主办单位  讲师       议题
 比赛: 赞助      奖励       规则/人员
-秀  : 简介      公司       议程</t>
+秀  : 简介      公司       议程
+20140216 增加fullDescr字段,用于简化前端的显示</t>
   </si>
   <si>
     <t>电子杂志</t>
@@ -1153,7 +1162,8 @@
   </si>
   <si>
     <t>20140101获取杂志列表接口(序号19)输出结构新增字段:
-magazine_id:杂志编号,year:年</t>
+magazine_id:杂志编号,year:年
+20140216 忽略magazine_year参数,返回全部期数的杂志</t>
   </si>
   <si>
     <t>行业新闻</t>
@@ -1360,16 +1370,41 @@
   <si>
     <t>20140111新增</t>
   </si>
+  <si>
+    <t>活动消息</t>
+  </si>
+  <si>
+    <t>获取当前活动消息</t>
+  </si>
+  <si>
+    <t>function:"message"
+data:{}</t>
+  </si>
+  <si>
+    <t>{
+"code":1,
+"message":"OK",
+"data":
+   {  
+    "msg_id":"消息编号",
+    "msg_content":"消息内容,内容不超过100字",
+    "msg_date":"消息发布时间"
+   }
+}</t>
+  </si>
+  <si>
+    <t>20140216新增</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1669,10 +1704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,6 +1775,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,9 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1868,8 +1903,8 @@
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="常规 2" xfId="6"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="常规 2" xfId="7"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3341,9 +3376,9 @@
   <dimension ref="B1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3490,7 +3525,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" ht="47" customHeight="1" spans="2:7">
+    <row r="12" ht="47" customHeight="1" spans="2:8">
       <c r="B12" s="12">
         <v>5</v>
       </c>
@@ -3505,6 +3540,9 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
+      <c r="H12" s="21" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" ht="47" customHeight="1" spans="2:7">
       <c r="B13" s="12">
@@ -3514,10 +3552,10 @@
         <v>139</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
@@ -3530,10 +3568,10 @@
         <v>139</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -3546,10 +3584,10 @@
         <v>139</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
@@ -3562,10 +3600,10 @@
         <v>139</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -3578,10 +3616,10 @@
         <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
@@ -3594,12 +3632,12 @@
         <v>139</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="21"/>
+        <v>164</v>
+      </c>
+      <c r="F18" s="22"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" ht="249" customHeight="1" spans="2:8">
@@ -3607,20 +3645,20 @@
         <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>168</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" ht="146.25" spans="2:7">
@@ -3628,16 +3666,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="22" t="s">
         <v>171</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="G20" s="25"/>
     </row>
@@ -3646,22 +3684,22 @@
         <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="22" t="s">
         <v>175</v>
       </c>
+      <c r="F21" s="23" t="s">
+        <v>176</v>
+      </c>
       <c r="G21" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="24" t="s">
         <v>177</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="22" ht="153" customHeight="1" spans="2:7">
@@ -3669,16 +3707,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="22" t="s">
         <v>181</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -3687,38 +3725,38 @@
         <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="22" t="s">
         <v>185</v>
       </c>
+      <c r="F23" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" ht="157.5" spans="2:8">
+    <row r="24" ht="168.75" spans="2:8">
       <c r="B24" s="12">
         <v>17</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="22" t="s">
         <v>188</v>
       </c>
+      <c r="F24" s="23" t="s">
+        <v>189</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="24" t="s">
-        <v>189</v>
+      <c r="H24" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="125" customHeight="1" spans="2:8">
@@ -3726,20 +3764,20 @@
         <v>18</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" s="26"/>
-      <c r="H25" s="24" t="s">
-        <v>194</v>
+      <c r="H25" s="21" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" ht="102" customHeight="1" spans="2:8">
@@ -3747,20 +3785,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="24" t="s">
-        <v>198</v>
+      <c r="H26" s="21" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" ht="162" customHeight="1" spans="2:8">
@@ -3768,20 +3806,20 @@
         <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="22" t="s">
         <v>202</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>203</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" ht="121" customHeight="1" spans="2:8">
@@ -3789,20 +3827,20 @@
         <v>21</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="24" t="s">
-        <v>207</v>
+      <c r="H28" s="21" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="29" ht="148" customHeight="1" spans="2:8">
@@ -3810,20 +3848,20 @@
         <v>22</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="24" t="s">
-        <v>212</v>
+      <c r="H29" s="21" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="30" ht="62" customHeight="1" spans="2:8">
@@ -3831,20 +3869,20 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" ht="123.75" spans="2:8">
@@ -3852,20 +3890,20 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="22" t="s">
         <v>220</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" ht="191.25" spans="2:8">
@@ -3873,20 +3911,20 @@
         <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="22" t="s">
         <v>224</v>
       </c>
+      <c r="F32" s="23" t="s">
+        <v>225</v>
+      </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="24" t="s">
-        <v>225</v>
+      <c r="H32" s="21" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="33" ht="146.25" spans="2:8">
@@ -3894,24 +3932,42 @@
         <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" s="22" t="s">
         <v>228</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="32"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" ht="112.5" spans="2:8">
+      <c r="B34" s="6">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" s="32"/>
@@ -3962,6 +4018,7 @@
       <c r="G50" s="32"/>
     </row>
   </sheetData>
+  <autoFilter ref="B7:H34"/>
   <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>

--- a/接口整理.xlsx
+++ b/接口整理.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="10060" tabRatio="564" activeTab="1"/>
+    <workbookView windowWidth="21500" windowHeight="10480" tabRatio="564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
     <sheet name="接口" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口!$B$7:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口!$B$7:$H$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241">
   <si>
     <t>主界面</t>
   </si>
@@ -944,9 +944,15 @@
    "tele":"电话",
    "summary":"简介",
    "location":"位置",
-   "firstchar":"a"
+   "firstchar":"a",
+   "ename":"英文名",
+   "fax":"传真",
+   "address":"地址"
   }
 }</t>
+  </si>
+  <si>
+    <t>20140219 新增英文名、传真、地址</t>
   </si>
   <si>
     <t>观众登记</t>
@@ -1382,7 +1388,7 @@
   </si>
   <si>
     <t>{
-"code":1,
+"code":0,
 "message":"OK",
 "data":
    {  
@@ -1395,6 +1401,27 @@
   <si>
     <t>20140216新增</t>
   </si>
+  <si>
+    <t>获取聚划算信息</t>
+  </si>
+  <si>
+    <t>function:"message_jhs"
+data:{}</t>
+  </si>
+  <si>
+    <t>{
+"code":0,
+"message":"OK",
+"data":
+   { "zhanweiimg_id","展位图编号",
+     "coordinate":{"tlx":左上角x,"tly":左上角y,"brx":右下角x,"bry":右下角y},
+     "howbuy":"如何买的信息" 
+   }
+}</t>
+  </si>
+  <si>
+    <t>20140303新增 坐标和展商坐标是一个含义</t>
+  </si>
 </sst>
 </file>
 
@@ -1402,8 +1429,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="16">
@@ -1704,10 +1731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1903,8 +1930,8 @@
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 2" xfId="6"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3375,10 +3402,10 @@
   <sheetPr/>
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3661,7 +3688,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" ht="146.25" spans="2:7">
+    <row r="20" ht="191.25" spans="2:8">
       <c r="B20" s="12">
         <v>13</v>
       </c>
@@ -3678,28 +3705,31 @@
         <v>172</v>
       </c>
       <c r="G20" s="25"/>
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" ht="112.5" spans="2:8">
       <c r="B21" s="12">
         <v>14</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" ht="153" customHeight="1" spans="2:7">
@@ -3707,16 +3737,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -3725,16 +3755,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G23" s="25"/>
     </row>
@@ -3743,20 +3773,20 @@
         <v>17</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" ht="125" customHeight="1" spans="2:8">
@@ -3764,20 +3794,20 @@
         <v>18</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" ht="102" customHeight="1" spans="2:8">
@@ -3785,20 +3815,20 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" ht="162" customHeight="1" spans="2:8">
@@ -3806,20 +3836,20 @@
         <v>20</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" ht="121" customHeight="1" spans="2:8">
@@ -3827,20 +3857,20 @@
         <v>21</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" ht="148" customHeight="1" spans="2:8">
@@ -3848,20 +3878,20 @@
         <v>22</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" ht="62" customHeight="1" spans="2:8">
@@ -3869,20 +3899,20 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" ht="123.75" spans="2:8">
@@ -3890,20 +3920,20 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" ht="191.25" spans="2:8">
@@ -3914,17 +3944,17 @@
         <v>165</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" ht="146.25" spans="2:8">
@@ -3935,17 +3965,17 @@
         <v>165</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" ht="112.5" spans="2:8">
@@ -3953,24 +3983,42 @@
         <v>27</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="32"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" ht="101.25" spans="2:8">
+      <c r="B35" s="6">
+        <v>28</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" s="32"/>
@@ -4018,7 +4066,7 @@
       <c r="G50" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:H34"/>
+  <autoFilter ref="B7:H35"/>
   <mergeCells count="6">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
